--- a/mysite/DB2_Buffer.xlsx
+++ b/mysite/DB2_Buffer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCG\PycharmProjects\django-wms-skk\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480E34A-9D8B-4FD0-A93F-0AA87F25028A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0BE59B-FDAF-428A-BE49-54BDB1465CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>Buffer1</t>
   </si>
   <si>
-    <t>SKK,KCL,SMC KK1,SMC KK2,SMC BB,SMC NR</t>
+    <t>SKK,KCL,SMC KK1,SMC KK2,SMC BB,SMC NR,SMC LP,SWCC</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
